--- a/Supplementary/文档/Lua脚本文档.xlsx
+++ b/Supplementary/文档/Lua脚本文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YURI\源码\FA2spHDM\Supplementary\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33520FCD-779F-412E-A4C0-B3D7347398CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00F0B21-A1A1-4467-A270-F24C6C36786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2510" yWindow="3550" windowWidth="28080" windowHeight="15280" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
+    <workbookView xWindow="1560" yWindow="1370" windowWidth="31590" windowHeight="15280" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7655,19 +7655,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>刷新覆盖图状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>刷新隧道状态</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7857,19 +7844,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>记录撤销状态，只能记录覆盖图与地形状态，一般用于更改地形之前</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>标签</t>
     </r>
     <r>
@@ -12226,6 +12200,12 @@
   <si>
     <t>刷新触发状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新覆盖物状态</t>
+  </si>
+  <si>
+    <t>记录撤销状态，只能记录覆盖物与地形状态，一般用于更改地形之前</t>
   </si>
 </sst>
 </file>
@@ -12527,6 +12507,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12537,9 +12520,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17216,8 +17196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF381881-FCB8-4D63-A433-CD8B5CF734B8}">
   <dimension ref="A1:F414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C267" sqref="C267"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -17232,11 +17212,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -17563,11 +17543,11 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>680</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -17588,31 +17568,31 @@
         <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
-        <v>715</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
       <c r="E35" s="5">
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="31" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>206</v>
@@ -17621,10 +17601,10 @@
         <v>373</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -17641,7 +17621,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -17658,7 +17638,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -17675,7 +17655,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -17683,7 +17663,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>377</v>
@@ -17692,7 +17672,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -17709,7 +17689,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -17726,25 +17706,25 @@
         <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
+      <c r="A43" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
       <c r="E43" s="5">
         <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>206</v>
@@ -17756,7 +17736,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -17773,7 +17753,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -17790,7 +17770,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -17807,7 +17787,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -17815,7 +17795,7 @@
         <v>36</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>377</v>
@@ -17824,7 +17804,7 @@
         <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="31" x14ac:dyDescent="0.3">
@@ -17832,7 +17812,7 @@
         <v>38</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>378</v>
@@ -17872,11 +17852,11 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
-        <v>682</v>
-      </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
+      <c r="A53" s="24" t="s">
+        <v>680</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
@@ -18017,11 +17997,11 @@
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
-        <v>683</v>
-      </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
+      <c r="A66" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
@@ -18325,11 +18305,11 @@
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
+      <c r="A90" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
@@ -18627,11 +18607,11 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="21" t="s">
-        <v>685</v>
-      </c>
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
+      <c r="A114" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
@@ -18909,11 +18889,11 @@
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="21" t="s">
-        <v>686</v>
-      </c>
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
+      <c r="A136" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
@@ -19293,11 +19273,11 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A166" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="B166" s="22"/>
-      <c r="C166" s="22"/>
+      <c r="A166" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
@@ -19315,11 +19295,11 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="21" t="s">
-        <v>688</v>
-      </c>
-      <c r="B168" s="21"/>
-      <c r="C168" s="21"/>
+      <c r="A168" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="B168" s="22"/>
+      <c r="C168" s="22"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
@@ -19727,11 +19707,11 @@
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="21" t="s">
-        <v>689</v>
-      </c>
-      <c r="B200" s="21"/>
-      <c r="C200" s="21"/>
+      <c r="A200" s="22" t="s">
+        <v>687</v>
+      </c>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
@@ -19808,10 +19788,10 @@
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -19826,10 +19806,10 @@
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -19837,17 +19817,17 @@
         <v>98</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>498</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -19862,10 +19842,10 @@
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -19876,14 +19856,14 @@
         <v>271</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -19898,10 +19878,10 @@
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -19916,10 +19896,10 @@
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -19934,10 +19914,10 @@
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="32" x14ac:dyDescent="0.3">
@@ -19952,10 +19932,10 @@
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -19970,10 +19950,10 @@
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="32" x14ac:dyDescent="0.3">
@@ -19988,10 +19968,10 @@
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20006,10 +19986,10 @@
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20024,10 +20004,10 @@
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20042,10 +20022,10 @@
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20060,10 +20040,10 @@
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20078,10 +20058,10 @@
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
@@ -20096,18 +20076,18 @@
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="B223" s="20"/>
-      <c r="C223" s="20"/>
+      <c r="A223" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="B223" s="21"/>
+      <c r="C223" s="21"/>
     </row>
     <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
@@ -20120,10 +20100,10 @@
         <v>339</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.3">
@@ -20140,7 +20120,7 @@
         <v>116</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -20157,7 +20137,7 @@
         <v>117</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20174,7 +20154,7 @@
         <v>118</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20191,7 +20171,7 @@
         <v>119</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -20279,7 +20259,7 @@
         <v>124</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="31" x14ac:dyDescent="0.3">
@@ -20313,7 +20293,7 @@
         <v>126</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="32" x14ac:dyDescent="0.3">
@@ -20327,10 +20307,10 @@
         <v>523</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20473,11 +20453,11 @@
       <c r="E247" s="1"/>
     </row>
     <row r="248" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A248" s="20" t="s">
-        <v>693</v>
-      </c>
-      <c r="B248" s="20"/>
-      <c r="C248" s="20"/>
+      <c r="A248" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="B248" s="21"/>
+      <c r="C248" s="21"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
@@ -20538,10 +20518,10 @@
         <v>34</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C253" s="18" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -20593,7 +20573,7 @@
         <v>163</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>541</v>
+        <v>779</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -20606,7 +20586,7 @@
         <v>164</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -20619,7 +20599,7 @@
         <v>165</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -20632,7 +20612,7 @@
         <v>166</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -20642,10 +20622,10 @@
         <v>34</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C261" s="18" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -20658,7 +20638,7 @@
         <v>167</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -20671,7 +20651,7 @@
         <v>171</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -20684,7 +20664,7 @@
         <v>168</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -20697,7 +20677,7 @@
         <v>172</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -20710,7 +20690,7 @@
         <v>169</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -20723,56 +20703,56 @@
         <v>170</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>550</v>
+        <v>780</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
     <row r="268" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
     <row r="270" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
     <row r="271" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A271" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="B271" s="20"/>
-      <c r="C271" s="20"/>
+      <c r="A271" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="B271" s="21"/>
+      <c r="C271" s="21"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
@@ -20790,11 +20770,11 @@
       <c r="E272" s="1"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="B273" s="21"/>
-      <c r="C273" s="21"/>
+      <c r="A273" s="22" t="s">
+        <v>693</v>
+      </c>
+      <c r="B273" s="22"/>
+      <c r="C273" s="22"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
@@ -20806,7 +20786,7 @@
         <v>272</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -20819,7 +20799,7 @@
         <v>273</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -20832,17 +20812,17 @@
         <v>216</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="24" t="s">
-        <v>696</v>
-      </c>
-      <c r="B277" s="24"/>
-      <c r="C277" s="24"/>
+      <c r="A277" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
@@ -20854,7 +20834,7 @@
         <v>274</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -20867,7 +20847,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -20893,7 +20873,7 @@
         <v>215</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -20906,7 +20886,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -20919,7 +20899,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -20932,7 +20912,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -20945,7 +20925,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -20958,7 +20938,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -20971,7 +20951,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -20984,7 +20964,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -20997,7 +20977,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -21010,7 +20990,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -21023,7 +21003,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -21036,7 +21016,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -21046,10 +21026,10 @@
         <v>179</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -21059,10 +21039,10 @@
         <v>179</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -21075,7 +21055,7 @@
         <v>286</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -21088,7 +21068,7 @@
         <v>287</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -21098,10 +21078,10 @@
         <v>179</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -21114,7 +21094,7 @@
         <v>288</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -21127,7 +21107,7 @@
         <v>265</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -21140,7 +21120,7 @@
         <v>289</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -21153,7 +21133,7 @@
         <v>182</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -21166,7 +21146,7 @@
         <v>183</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -21179,7 +21159,7 @@
         <v>184</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -21192,7 +21172,7 @@
         <v>185</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -21205,7 +21185,7 @@
         <v>186</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -21218,17 +21198,17 @@
         <v>187</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="24" t="s">
-        <v>697</v>
-      </c>
-      <c r="B307" s="24"/>
-      <c r="C307" s="24"/>
+      <c r="A307" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="B307" s="20"/>
+      <c r="C307" s="20"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
@@ -21240,7 +21220,7 @@
         <v>290</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -21253,7 +21233,7 @@
         <v>272</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -21279,7 +21259,7 @@
         <v>291</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -21292,7 +21272,7 @@
         <v>292</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -21305,7 +21285,7 @@
         <v>215</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -21318,7 +21298,7 @@
         <v>293</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -21331,7 +21311,7 @@
         <v>294</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -21344,7 +21324,7 @@
         <v>295</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -21357,7 +21337,7 @@
         <v>296</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -21370,7 +21350,7 @@
         <v>297</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -21383,7 +21363,7 @@
         <v>298</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -21396,7 +21376,7 @@
         <v>299</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -21409,7 +21389,7 @@
         <v>300</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -21422,7 +21402,7 @@
         <v>301</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -21435,7 +21415,7 @@
         <v>302</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -21448,7 +21428,7 @@
         <v>303</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -21461,7 +21441,7 @@
         <v>278</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -21474,7 +21454,7 @@
         <v>279</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -21487,7 +21467,7 @@
         <v>280</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -21500,7 +21480,7 @@
         <v>304</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -21510,10 +21490,10 @@
         <v>179</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -21526,7 +21506,7 @@
         <v>288</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -21539,7 +21519,7 @@
         <v>265</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -21552,7 +21532,7 @@
         <v>289</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -21565,7 +21545,7 @@
         <v>192</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -21578,17 +21558,17 @@
         <v>193</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="24" t="s">
-        <v>698</v>
-      </c>
-      <c r="B335" s="24"/>
-      <c r="C335" s="24"/>
+      <c r="A335" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="B335" s="20"/>
+      <c r="C335" s="20"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
@@ -21600,7 +21580,7 @@
         <v>290</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -21613,7 +21593,7 @@
         <v>272</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -21639,7 +21619,7 @@
         <v>282</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -21652,7 +21632,7 @@
         <v>306</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -21665,7 +21645,7 @@
         <v>307</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -21678,7 +21658,7 @@
         <v>287</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -21691,7 +21671,7 @@
         <v>305</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -21704,7 +21684,7 @@
         <v>288</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -21717,7 +21697,7 @@
         <v>265</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -21730,7 +21710,7 @@
         <v>289</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -21743,7 +21723,7 @@
         <v>196</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -21756,17 +21736,17 @@
         <v>197</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="24" t="s">
-        <v>699</v>
-      </c>
-      <c r="B349" s="24"/>
-      <c r="C349" s="24"/>
+      <c r="A349" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="B349" s="20"/>
+      <c r="C349" s="20"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
@@ -21778,7 +21758,7 @@
         <v>290</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -21791,7 +21771,7 @@
         <v>272</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -21817,7 +21797,7 @@
         <v>223</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -21830,7 +21810,7 @@
         <v>308</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -21843,7 +21823,7 @@
         <v>309</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -21856,7 +21836,7 @@
         <v>310</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -21869,7 +21849,7 @@
         <v>311</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -21882,7 +21862,7 @@
         <v>305</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -21895,7 +21875,7 @@
         <v>288</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -21908,7 +21888,7 @@
         <v>265</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -21921,7 +21901,7 @@
         <v>289</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -21934,7 +21914,7 @@
         <v>200</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -21947,17 +21927,17 @@
         <v>201</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="24" t="s">
-        <v>700</v>
-      </c>
-      <c r="B364" s="24"/>
-      <c r="C364" s="24"/>
+      <c r="A364" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="B364" s="20"/>
+      <c r="C364" s="20"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
@@ -21969,7 +21949,7 @@
         <v>290</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -21982,7 +21962,7 @@
         <v>272</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -22008,7 +21988,7 @@
         <v>215</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -22021,7 +22001,7 @@
         <v>198</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -22034,7 +22014,7 @@
         <v>194</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -22047,7 +22027,7 @@
         <v>173</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -22060,7 +22040,7 @@
         <v>312</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -22073,7 +22053,7 @@
         <v>313</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -22086,7 +22066,7 @@
         <v>314</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -22099,7 +22079,7 @@
         <v>315</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -22112,7 +22092,7 @@
         <v>316</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -22125,7 +22105,7 @@
         <v>223</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -22138,7 +22118,7 @@
         <v>249</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -22151,7 +22131,7 @@
         <v>317</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -22164,7 +22144,7 @@
         <v>318</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -22177,7 +22157,7 @@
         <v>319</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -22190,7 +22170,7 @@
         <v>320</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -22203,7 +22183,7 @@
         <v>321</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -22216,7 +22196,7 @@
         <v>322</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -22229,7 +22209,7 @@
         <v>323</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -22242,7 +22222,7 @@
         <v>324</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -22255,7 +22235,7 @@
         <v>325</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -22268,7 +22248,7 @@
         <v>326</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -22281,7 +22261,7 @@
         <v>327</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -22294,7 +22274,7 @@
         <v>328</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -22307,7 +22287,7 @@
         <v>329</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -22320,7 +22300,7 @@
         <v>330</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -22333,7 +22313,7 @@
         <v>331</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -22346,7 +22326,7 @@
         <v>332</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -22359,7 +22339,7 @@
         <v>333</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -22372,7 +22352,7 @@
         <v>303</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -22385,7 +22365,7 @@
         <v>334</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -22398,7 +22378,7 @@
         <v>335</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -22411,7 +22391,7 @@
         <v>336</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -22424,7 +22404,7 @@
         <v>337</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -22437,7 +22417,7 @@
         <v>305</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -22450,7 +22430,7 @@
         <v>288</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -22463,7 +22443,7 @@
         <v>265</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -22476,7 +22456,7 @@
         <v>289</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -22489,7 +22469,7 @@
         <v>204</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -22502,15 +22482,15 @@
         <v>205</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="23" x14ac:dyDescent="0.3">
-      <c r="A407" s="20" t="s">
-        <v>761</v>
-      </c>
-      <c r="B407" s="20"/>
-      <c r="C407" s="20"/>
+      <c r="A407" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="B407" s="21"/>
+      <c r="C407" s="21"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="15" t="s">
@@ -22528,10 +22508,10 @@
         <v>29</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -22539,10 +22519,10 @@
         <v>29</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -22550,10 +22530,10 @@
         <v>33</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C411" s="18" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -22561,21 +22541,21 @@
         <v>33</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C413" s="14" t="s">
         <v>770</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="C413" s="14" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
@@ -22583,20 +22563,14 @@
         <v>33</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C414" s="18" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="A307:C307"/>
     <mergeCell ref="A407:C407"/>
     <mergeCell ref="A114:C114"/>
     <mergeCell ref="A1:C1"/>
@@ -22613,6 +22587,12 @@
     <mergeCell ref="A223:C223"/>
     <mergeCell ref="A335:C335"/>
     <mergeCell ref="A349:C349"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A307:C307"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Supplementary/文档/Lua脚本文档.xlsx
+++ b/Supplementary/文档/Lua脚本文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YURI\源码\FA2spHDM\Supplementary\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7102024-599E-4B51-9545-AD0036491516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D71BF07-2B2E-457B-A3C9-9348CE135FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1370" windowWidth="31590" windowHeight="15280" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="794">
   <si>
     <t>iso_size()</t>
   </si>
@@ -12248,6 +12248,26 @@
   </si>
   <si>
     <t>基本函数类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_file()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出文件选择对话框，加载指定的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_file(string text)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出文件保存对话框，将文本保存至指定文件中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_path()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12550,6 +12570,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12565,9 +12588,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12689,6 +12709,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -12727,13 +12754,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -12788,13 +12808,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -12854,6 +12868,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -12908,14 +12929,6 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -12934,7 +12947,6 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -12953,7 +12965,6 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -12968,8 +12979,9 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
+        <name val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -12990,6 +13002,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13008,6 +13021,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13022,11 +13036,11 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13086,6 +13100,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -13143,13 +13164,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -13527,7 +13541,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13546,7 +13560,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13584,7 +13603,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13603,12 +13622,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13646,7 +13660,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13668,6 +13682,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -13703,7 +13720,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13725,9 +13742,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -13766,6 +13780,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -13782,7 +13799,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13823,9 +13845,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -13842,12 +13861,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13885,7 +13899,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13907,6 +13921,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -13942,7 +13959,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -13964,9 +13981,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -14005,6 +14019,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -14021,7 +14038,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14062,9 +14084,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -14081,12 +14100,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14124,7 +14138,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14146,6 +14160,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -14181,7 +14198,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14203,9 +14220,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -14244,6 +14258,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -14260,7 +14277,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14301,9 +14323,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -14320,12 +14339,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14363,7 +14377,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14385,6 +14399,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -14420,7 +14437,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14442,9 +14459,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -14499,7 +14513,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14518,7 +14532,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14556,7 +14575,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14575,12 +14594,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14618,7 +14632,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14640,6 +14654,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -14675,7 +14692,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14697,9 +14714,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -14754,7 +14768,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14773,7 +14787,19 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14811,7 +14837,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -14830,6 +14856,10 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -14837,9 +14867,6 @@
           <color theme="6" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -14902,6 +14929,13 @@
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -14931,6 +14965,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -14969,27 +15004,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15008,7 +15023,6 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -15066,7 +15080,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15085,7 +15099,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15123,7 +15142,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15142,12 +15161,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15185,7 +15199,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15204,7 +15218,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15242,7 +15261,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15261,12 +15280,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15304,7 +15318,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15323,7 +15337,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15361,7 +15380,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15380,12 +15399,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15423,7 +15437,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15442,7 +15456,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15480,7 +15499,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15499,12 +15518,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15542,7 +15556,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15561,7 +15575,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15599,7 +15618,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15618,12 +15637,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15661,7 +15675,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15680,7 +15694,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15718,7 +15737,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15737,12 +15756,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15780,7 +15794,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15799,7 +15813,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15837,7 +15856,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15856,12 +15875,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15899,7 +15913,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15918,7 +15932,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15956,7 +15975,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -15975,12 +15994,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16018,7 +16032,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16037,7 +16051,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16075,7 +16094,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16094,12 +16113,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16137,7 +16151,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16156,7 +16170,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16194,7 +16213,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16213,12 +16232,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16256,7 +16270,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16275,7 +16289,12 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16313,7 +16332,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16332,12 +16351,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16375,7 +16389,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16394,7 +16408,19 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16432,7 +16458,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16451,6 +16477,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -16461,6 +16488,13 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -16482,7 +16516,6 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16501,6 +16534,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -16520,27 +16554,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16559,6 +16573,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16577,8 +16592,20 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -16636,13 +16663,6 @@
         <scheme val="none"/>
       </font>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -16664,430 +16684,430 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6A07C659-8DED-4BB3-94BC-3ABDAF20E980}" name="表8" displayName="表8" ref="A2:C30" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6A07C659-8DED-4BB3-94BC-3ABDAF20E980}" name="表8" displayName="表8" ref="A2:C30" totalsRowShown="0" headerRowDxfId="267" dataDxfId="266">
   <autoFilter ref="A2:C30" xr:uid="{6A07C659-8DED-4BB3-94BC-3ABDAF20E980}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{99ACEBAA-6FCB-4CE2-8B06-EC1D345C6E60}" name="类型" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4E29546C-2E44-4130-91BB-9E6299D670BA}" name="名称" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{B8698A2F-EF44-450C-9DEF-394CEE9E08AA}" name="注释" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{99ACEBAA-6FCB-4CE2-8B06-EC1D345C6E60}" name="类型" dataDxfId="265"/>
+    <tableColumn id="2" xr3:uid="{4E29546C-2E44-4130-91BB-9E6299D670BA}" name="名称" dataDxfId="264"/>
+    <tableColumn id="3" xr3:uid="{B8698A2F-EF44-450C-9DEF-394CEE9E08AA}" name="注释" dataDxfId="263"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{0A3C2F67-6160-4C68-9FC3-A36817FDA71F}" name="表21" displayName="表21" ref="A135:C140" headerRowCount="0" totalsRowShown="0" headerRowDxfId="211" dataDxfId="210">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{0A3C2F67-6160-4C68-9FC3-A36817FDA71F}" name="表21" displayName="表21" ref="A137:C142" headerRowCount="0" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7C4A9893-7CE1-41B7-9969-56620770CC0A}" name="列1" headerRowDxfId="209" dataDxfId="208"/>
-    <tableColumn id="2" xr3:uid="{E68A9E25-E351-4FDE-9AB9-4B3897634EDD}" name="列2" headerRowDxfId="207" dataDxfId="206"/>
-    <tableColumn id="3" xr3:uid="{6D318A4B-4A17-4276-A709-3CFFBB0157E9}" name="列3" headerRowDxfId="205" dataDxfId="204"/>
+    <tableColumn id="1" xr3:uid="{7C4A9893-7CE1-41B7-9969-56620770CC0A}" name="列1" headerRowDxfId="204" dataDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{E68A9E25-E351-4FDE-9AB9-4B3897634EDD}" name="列2" headerRowDxfId="202" dataDxfId="201"/>
+    <tableColumn id="3" xr3:uid="{6D318A4B-4A17-4276-A709-3CFFBB0157E9}" name="列3" headerRowDxfId="200" dataDxfId="199"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{0F152026-C940-4463-96CD-5CD35790E755}" name="表22" displayName="表22" ref="A142:C162" headerRowCount="0" totalsRowShown="0" headerRowDxfId="203" dataDxfId="202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{0F152026-C940-4463-96CD-5CD35790E755}" name="表22" displayName="表22" ref="A144:C164" headerRowCount="0" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{30CD0937-6BE4-47F9-987C-DC92C5EC7171}" name="列1" headerRowDxfId="201" dataDxfId="200"/>
-    <tableColumn id="2" xr3:uid="{8DF47B2A-5D06-40A0-8794-623CA860B04B}" name="列2" headerRowDxfId="199" dataDxfId="198"/>
-    <tableColumn id="3" xr3:uid="{73AFC137-D91B-4403-A4F7-699813C76B6A}" name="列3" headerRowDxfId="197" dataDxfId="196"/>
+    <tableColumn id="1" xr3:uid="{30CD0937-6BE4-47F9-987C-DC92C5EC7171}" name="列1" headerRowDxfId="196" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{8DF47B2A-5D06-40A0-8794-623CA860B04B}" name="列2" headerRowDxfId="194" dataDxfId="193"/>
+    <tableColumn id="3" xr3:uid="{73AFC137-D91B-4403-A4F7-699813C76B6A}" name="列3" headerRowDxfId="192" dataDxfId="191"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F59BE8DD-2D98-4251-A43E-3D66472F68F2}" name="表23" displayName="表23" ref="A163:C170" headerRowCount="0" totalsRowShown="0" headerRowDxfId="195" dataDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F59BE8DD-2D98-4251-A43E-3D66472F68F2}" name="表23" displayName="表23" ref="A165:C172" headerRowCount="0" totalsRowShown="0" headerRowDxfId="190" dataDxfId="189">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A4DCD70B-EF54-4C76-8B3D-B337AACFEBE2}" name="列1" headerRowDxfId="193" dataDxfId="192"/>
-    <tableColumn id="2" xr3:uid="{980A74F8-21DB-4459-9B01-F73E694BB112}" name="列2" headerRowDxfId="191" dataDxfId="190"/>
-    <tableColumn id="3" xr3:uid="{E4DE6E08-FC2F-4B4F-B81E-A50D03AF1855}" name="列3" headerRowDxfId="189" dataDxfId="188"/>
+    <tableColumn id="1" xr3:uid="{A4DCD70B-EF54-4C76-8B3D-B337AACFEBE2}" name="列1" headerRowDxfId="188" dataDxfId="187"/>
+    <tableColumn id="2" xr3:uid="{980A74F8-21DB-4459-9B01-F73E694BB112}" name="列2" headerRowDxfId="186" dataDxfId="185"/>
+    <tableColumn id="3" xr3:uid="{E4DE6E08-FC2F-4B4F-B81E-A50D03AF1855}" name="列3" headerRowDxfId="184" dataDxfId="183"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{50ECB94D-2D3D-4EEC-9744-BD7CA7DA405C}" name="表24" displayName="表24" ref="A174:C200" headerRowCount="0" totalsRowShown="0" headerRowDxfId="187" dataDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{50ECB94D-2D3D-4EEC-9744-BD7CA7DA405C}" name="表24" displayName="表24" ref="A176:C202" headerRowCount="0" totalsRowShown="0" headerRowDxfId="182" dataDxfId="181">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{497726AB-C219-4AC6-9CC5-FBF853F3B720}" name="列1" headerRowDxfId="185" dataDxfId="184"/>
-    <tableColumn id="2" xr3:uid="{EB88CB11-F4F4-4BB6-A0EF-436114B6596D}" name="列2" headerRowDxfId="183" dataDxfId="182"/>
-    <tableColumn id="3" xr3:uid="{38F73BD2-9687-42A6-AE50-5F0DED8D26DA}" name="列3" headerRowDxfId="181" dataDxfId="180"/>
+    <tableColumn id="1" xr3:uid="{497726AB-C219-4AC6-9CC5-FBF853F3B720}" name="列1" headerRowDxfId="180" dataDxfId="179"/>
+    <tableColumn id="2" xr3:uid="{EB88CB11-F4F4-4BB6-A0EF-436114B6596D}" name="列2" headerRowDxfId="178" dataDxfId="177"/>
+    <tableColumn id="3" xr3:uid="{38F73BD2-9687-42A6-AE50-5F0DED8D26DA}" name="列3" headerRowDxfId="176" dataDxfId="175"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{58044261-C635-4624-BEA5-16360A2DBFF2}" name="表25" displayName="表25" ref="A201:C204" headerRowCount="0" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{58044261-C635-4624-BEA5-16360A2DBFF2}" name="表25" displayName="表25" ref="A203:C206" headerRowCount="0" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CAC3FC31-7C51-494D-927B-7F91AACA76BE}" name="列1" headerRowDxfId="177" dataDxfId="176"/>
-    <tableColumn id="2" xr3:uid="{B7569F0F-4536-49B8-8E00-97BA58504784}" name="列2" headerRowDxfId="175" dataDxfId="174"/>
-    <tableColumn id="3" xr3:uid="{E3C70044-E7F3-4BC2-875B-9003F5EE43C0}" name="列3" headerRowDxfId="173" dataDxfId="172"/>
+    <tableColumn id="1" xr3:uid="{CAC3FC31-7C51-494D-927B-7F91AACA76BE}" name="列1" headerRowDxfId="172" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{B7569F0F-4536-49B8-8E00-97BA58504784}" name="列2" headerRowDxfId="170" dataDxfId="169"/>
+    <tableColumn id="3" xr3:uid="{E3C70044-E7F3-4BC2-875B-9003F5EE43C0}" name="列3" headerRowDxfId="168" dataDxfId="167"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3B4AA908-2007-4F09-A997-0B068AC73860}" name="表26" displayName="表26" ref="A206:C215" headerRowCount="0" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{3B4AA908-2007-4F09-A997-0B068AC73860}" name="表26" displayName="表26" ref="A208:C217" headerRowCount="0" totalsRowShown="0" headerRowDxfId="166" dataDxfId="165">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DC2B36F9-72F0-4617-96E0-FB17D1DA90E9}" name="列1" headerRowDxfId="169" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{2AB9FD0F-C484-4B56-8831-E90F084ED850}" name="列2" headerRowDxfId="167" dataDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{87718E1A-1DC3-4A55-A57F-B5E4832996B4}" name="列3" headerRowDxfId="165" dataDxfId="164"/>
+    <tableColumn id="1" xr3:uid="{DC2B36F9-72F0-4617-96E0-FB17D1DA90E9}" name="列1" headerRowDxfId="164" dataDxfId="163"/>
+    <tableColumn id="2" xr3:uid="{2AB9FD0F-C484-4B56-8831-E90F084ED850}" name="列2" headerRowDxfId="162" dataDxfId="161"/>
+    <tableColumn id="3" xr3:uid="{87718E1A-1DC3-4A55-A57F-B5E4832996B4}" name="列3" headerRowDxfId="160" dataDxfId="159"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{4FC8CE3C-6054-47BD-B3A2-1BC2E582EC10}" name="表27" displayName="表27" ref="A216:C227" headerRowCount="0" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{4FC8CE3C-6054-47BD-B3A2-1BC2E582EC10}" name="表27" displayName="表27" ref="A218:C229" headerRowCount="0" totalsRowShown="0" headerRowDxfId="158" dataDxfId="157">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5A2DDE6C-A60D-4BDB-B003-A81DE8D50136}" name="列1" headerRowDxfId="161" dataDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{92BD504E-FA4D-44B5-96C6-9EF23B1BFD38}" name="列2" headerRowDxfId="159" dataDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{A03BA192-D5EA-4AAD-AE71-667578F856EA}" name="列3" headerRowDxfId="157" dataDxfId="156"/>
+    <tableColumn id="1" xr3:uid="{5A2DDE6C-A60D-4BDB-B003-A81DE8D50136}" name="列1" headerRowDxfId="156" dataDxfId="155"/>
+    <tableColumn id="2" xr3:uid="{92BD504E-FA4D-44B5-96C6-9EF23B1BFD38}" name="列2" headerRowDxfId="154" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{A03BA192-D5EA-4AAD-AE71-667578F856EA}" name="列3" headerRowDxfId="152" dataDxfId="151"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{5D97FDB3-98E4-4168-BC15-DDB11DA41C1F}" name="表28" displayName="表28" ref="E226:F238" totalsRowShown="0">
-  <autoFilter ref="E226:F238" xr:uid="{5D97FDB3-98E4-4168-BC15-DDB11DA41C1F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{5D97FDB3-98E4-4168-BC15-DDB11DA41C1F}" name="表28" displayName="表28" ref="E228:F240" totalsRowShown="0">
+  <autoFilter ref="E228:F240" xr:uid="{5D97FDB3-98E4-4168-BC15-DDB11DA41C1F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D0DD4909-88EE-417D-8066-BF472EBD12E0}" name="load_from值" dataDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{AE2ED8B4-D158-4DE7-87A6-E72FCA7C39E0}" name="读取文件" dataDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{D0DD4909-88EE-417D-8066-BF472EBD12E0}" name="load_from值" dataDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{AE2ED8B4-D158-4DE7-87A6-E72FCA7C39E0}" name="读取文件" dataDxfId="149"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{95C8C70F-0A08-40EE-882E-F9E7CBD319C1}" name="表30" displayName="表30" ref="A229:C252" totalsRowShown="0" headerRowDxfId="153" dataDxfId="151" headerRowBorderDxfId="152" tableBorderDxfId="150">
-  <autoFilter ref="A229:C252" xr:uid="{95C8C70F-0A08-40EE-882E-F9E7CBD319C1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{95C8C70F-0A08-40EE-882E-F9E7CBD319C1}" name="表30" displayName="表30" ref="A231:C254" totalsRowShown="0" headerRowDxfId="148" dataDxfId="146" headerRowBorderDxfId="147" tableBorderDxfId="145">
+  <autoFilter ref="A231:C254" xr:uid="{95C8C70F-0A08-40EE-882E-F9E7CBD319C1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{58073FA3-B651-4986-8143-6FB932DBD9B7}" name="类型" dataDxfId="149"/>
-    <tableColumn id="2" xr3:uid="{48F127E2-02C6-48D4-A8D7-6A1EE2BB10EF}" name="名称" dataDxfId="148"/>
-    <tableColumn id="3" xr3:uid="{E1B5F7F2-5735-41C3-AF73-9EA3488DA215}" name="注释" dataDxfId="147"/>
+    <tableColumn id="1" xr3:uid="{58073FA3-B651-4986-8143-6FB932DBD9B7}" name="类型" dataDxfId="144"/>
+    <tableColumn id="2" xr3:uid="{48F127E2-02C6-48D4-A8D7-6A1EE2BB10EF}" name="名称" dataDxfId="143"/>
+    <tableColumn id="3" xr3:uid="{E1B5F7F2-5735-41C3-AF73-9EA3488DA215}" name="注释" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A254:C274" totalsRowShown="0" headerRowDxfId="146" dataDxfId="144" headerRowBorderDxfId="145">
-  <autoFilter ref="A254:C274" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A256:C276" totalsRowShown="0" headerRowDxfId="141" dataDxfId="139" headerRowBorderDxfId="140">
+  <autoFilter ref="A256:C276" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7AFE3676-6BB6-4015-A9A2-3C00A30591EE}" name="类型" dataDxfId="143"/>
-    <tableColumn id="2" xr3:uid="{3DF9D97A-A61A-4164-9058-BEB8534B0E7F}" name="名称" dataDxfId="142"/>
-    <tableColumn id="3" xr3:uid="{8FBD946A-B239-42AE-B5B4-B0ACFABD7944}" name="注释" dataDxfId="141"/>
+    <tableColumn id="1" xr3:uid="{7AFE3676-6BB6-4015-A9A2-3C00A30591EE}" name="类型" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{3DF9D97A-A61A-4164-9058-BEB8534B0E7F}" name="名称" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{8FBD946A-B239-42AE-B5B4-B0ACFABD7944}" name="注释" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6CBA2500-DBF2-45B9-8B6A-CE2B2B0DED07}" name="表9" displayName="表9" ref="A38:C39" totalsRowShown="0" headerRowDxfId="267" dataDxfId="266" tableBorderDxfId="265">
-  <autoFilter ref="A38:C39" xr:uid="{6CBA2500-DBF2-45B9-8B6A-CE2B2B0DED07}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6CBA2500-DBF2-45B9-8B6A-CE2B2B0DED07}" name="表9" displayName="表9" ref="A40:C41" totalsRowShown="0" headerRowDxfId="262" dataDxfId="261" tableBorderDxfId="260">
+  <autoFilter ref="A40:C41" xr:uid="{6CBA2500-DBF2-45B9-8B6A-CE2B2B0DED07}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9AA0D8FC-0317-4F12-A96C-6F3DDE3CE283}" name="类型" dataDxfId="264"/>
-    <tableColumn id="2" xr3:uid="{19D56C7A-3086-47CE-ACC9-AE634638F97D}" name="名称" dataDxfId="263"/>
-    <tableColumn id="3" xr3:uid="{A0E98720-D76C-47AC-9612-199B63DF25DF}" name="注释" dataDxfId="262"/>
+    <tableColumn id="1" xr3:uid="{9AA0D8FC-0317-4F12-A96C-6F3DDE3CE283}" name="类型" dataDxfId="259"/>
+    <tableColumn id="2" xr3:uid="{19D56C7A-3086-47CE-ACC9-AE634638F97D}" name="名称" dataDxfId="258"/>
+    <tableColumn id="3" xr3:uid="{A0E98720-D76C-47AC-9612-199B63DF25DF}" name="注释" dataDxfId="257"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A279:C281" headerRowCount="0" totalsRowShown="0" headerRowDxfId="140" dataDxfId="139" tableBorderDxfId="138">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A281:C283" headerRowCount="0" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134" tableBorderDxfId="133">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6EE63355-C87E-4E89-957B-33338EEBECA8}" name="列1" headerRowDxfId="137" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{0371C133-76AF-4CE7-A076-F98E09274777}" name="列2" headerRowDxfId="135" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{A80708A1-368F-40F0-819A-A98C2832A40C}" name="列3" headerRowDxfId="133" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{6EE63355-C87E-4E89-957B-33338EEBECA8}" name="列1" headerRowDxfId="132" dataDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{0371C133-76AF-4CE7-A076-F98E09274777}" name="列2" headerRowDxfId="130" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{A80708A1-368F-40F0-819A-A98C2832A40C}" name="列3" headerRowDxfId="128" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A283:C305" headerRowCount="0" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A285:C307" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F870DA49-FE02-4965-9BA2-C22DA388F93A}" name="列1" headerRowDxfId="129" dataDxfId="128"/>
-    <tableColumn id="2" xr3:uid="{EDF4AD17-EFC3-4C50-9D98-69E7C9B397BD}" name="列2" headerRowDxfId="127" dataDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{410268F5-3303-464D-AEBC-891EA8C273C5}" name="列3" headerRowDxfId="125" dataDxfId="124"/>
+    <tableColumn id="1" xr3:uid="{F870DA49-FE02-4965-9BA2-C22DA388F93A}" name="列1" headerRowDxfId="124" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{EDF4AD17-EFC3-4C50-9D98-69E7C9B397BD}" name="列2" headerRowDxfId="122" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{410268F5-3303-464D-AEBC-891EA8C273C5}" name="列3" headerRowDxfId="120" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A306:C311" headerRowCount="0" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A308:C313" headerRowCount="0" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{66CF4FA4-633B-4807-9EB1-5660FC10D615}" name="列1" headerRowDxfId="121" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{C9A87010-2F92-41C3-B254-5F9C97D11A53}" name="列2" headerRowDxfId="119" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{BF1EEDD7-BC53-470C-A667-C28E2B2C983C}" name="列3" headerRowDxfId="117" dataDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{66CF4FA4-633B-4807-9EB1-5660FC10D615}" name="列1" headerRowDxfId="116" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{C9A87010-2F92-41C3-B254-5F9C97D11A53}" name="列2" headerRowDxfId="114" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{BF1EEDD7-BC53-470C-A667-C28E2B2C983C}" name="列3" headerRowDxfId="112" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A313:C337" headerRowCount="0" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A315:C339" headerRowCount="0" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{67376287-A809-402E-9EE3-4A52F04A489A}" name="列1" headerRowDxfId="113" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{C2A420D8-59DE-475C-A75B-E7A23356AD31}" name="列2" headerRowDxfId="111" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{62CCC029-53BF-436E-81DB-9C3B7E8293AC}" name="列3" headerRowDxfId="109" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{67376287-A809-402E-9EE3-4A52F04A489A}" name="列1" headerRowDxfId="108" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{C2A420D8-59DE-475C-A75B-E7A23356AD31}" name="列2" headerRowDxfId="106" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{62CCC029-53BF-436E-81DB-9C3B7E8293AC}" name="列3" headerRowDxfId="104" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A338:C339" headerRowCount="0" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A340:C341" headerRowCount="0" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A6DC2AF6-8D4E-470E-82E1-E4DBCFFEBCCA}" name="列1" headerRowDxfId="105" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{16863727-9F7B-4D75-ACD3-6C34CB540888}" name="列2" headerRowDxfId="103" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{9AF2CF2B-7572-43BE-BC8C-3A1DBE60C906}" name="列3" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="1" xr3:uid="{A6DC2AF6-8D4E-470E-82E1-E4DBCFFEBCCA}" name="列1" headerRowDxfId="100" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{16863727-9F7B-4D75-ACD3-6C34CB540888}" name="列2" headerRowDxfId="98" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{9AF2CF2B-7572-43BE-BC8C-3A1DBE60C906}" name="列3" headerRowDxfId="96" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A341:C351" headerRowCount="0" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A343:C353" headerRowCount="0" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1E43DFEC-54F6-4A6E-AE01-0F8079E2B5DE}" name="列1" headerRowDxfId="97" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{D21AEF5D-B438-4474-A662-A11B1B10C205}" name="列2" headerRowDxfId="95" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{F921F1EE-6583-4CAE-B537-A09419B1D0E3}" name="列3" headerRowDxfId="93" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{1E43DFEC-54F6-4A6E-AE01-0F8079E2B5DE}" name="列1" headerRowDxfId="92" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{D21AEF5D-B438-4474-A662-A11B1B10C205}" name="列2" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{F921F1EE-6583-4CAE-B537-A09419B1D0E3}" name="列3" headerRowDxfId="88" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A352:C353" headerRowCount="0" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A354:C355" headerRowCount="0" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C9CB15BD-7716-4ED5-BF07-FF95E006404C}" name="列1" headerRowDxfId="89" dataDxfId="88"/>
-    <tableColumn id="2" xr3:uid="{F4F3EB43-F114-4535-AA32-D687E6D8B359}" name="列2" headerRowDxfId="87" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{BD61D39D-9E24-4B67-A677-390E88233EB7}" name="列3" headerRowDxfId="85" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{C9CB15BD-7716-4ED5-BF07-FF95E006404C}" name="列1" headerRowDxfId="84" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{F4F3EB43-F114-4535-AA32-D687E6D8B359}" name="列2" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{BD61D39D-9E24-4B67-A677-390E88233EB7}" name="列3" headerRowDxfId="80" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A355:C366" headerRowCount="0" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A357:C368" headerRowCount="0" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A12B252F-D66B-4F1A-A738-89340EC8E765}" name="列1" headerRowDxfId="81" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{2D4BA011-60EB-4554-9E50-E83EB5E0AA83}" name="列2" headerRowDxfId="79" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{48D0CEAF-8781-477D-A421-304A6C1F934D}" name="列3" headerRowDxfId="77" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{A12B252F-D66B-4F1A-A738-89340EC8E765}" name="列1" headerRowDxfId="76" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{2D4BA011-60EB-4554-9E50-E83EB5E0AA83}" name="列2" headerRowDxfId="74" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{48D0CEAF-8781-477D-A421-304A6C1F934D}" name="列3" headerRowDxfId="72" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A367:C368" headerRowCount="0" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A369:C370" headerRowCount="0" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{909B7F4F-7182-4190-9C36-1D92BD462FC0}" name="列1" headerRowDxfId="73" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{7F230A7B-6862-4AB3-8B6D-77FDDA42A087}" name="列2" headerRowDxfId="71" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{7F67252B-AB17-4B3E-BBAF-4F4C152480FB}" name="列3" headerRowDxfId="69" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{909B7F4F-7182-4190-9C36-1D92BD462FC0}" name="列1" headerRowDxfId="68" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{7F230A7B-6862-4AB3-8B6D-77FDDA42A087}" name="列2" headerRowDxfId="66" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{7F67252B-AB17-4B3E-BBAF-4F4C152480FB}" name="列3" headerRowDxfId="64" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A370:C409" headerRowCount="0" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A372:C411" headerRowCount="0" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{753B7110-5D54-4DBB-A3D8-31CEFCADDDA6}" name="列1" headerRowDxfId="65" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{197B782B-ABDA-406D-86E0-2F9663F3E896}" name="列2" headerRowDxfId="63" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{883B75E1-090B-42C9-847F-71F447DBE350}" name="列3" headerRowDxfId="61" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{753B7110-5D54-4DBB-A3D8-31CEFCADDDA6}" name="列1" headerRowDxfId="60" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{197B782B-ABDA-406D-86E0-2F9663F3E896}" name="列2" headerRowDxfId="58" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{883B75E1-090B-42C9-847F-71F447DBE350}" name="列3" headerRowDxfId="56" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9773BCE4-497F-4E73-8ACB-E9281C146B6C}" name="表11" displayName="表11" ref="E39:F53" totalsRowShown="0">
-  <autoFilter ref="E39:F53" xr:uid="{9773BCE4-497F-4E73-8ACB-E9281C146B6C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9773BCE4-497F-4E73-8ACB-E9281C146B6C}" name="表11" displayName="表11" ref="E41:F55" totalsRowShown="0">
+  <autoFilter ref="E41:F55" xr:uid="{9773BCE4-497F-4E73-8ACB-E9281C146B6C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C500696E-8958-4A42-8927-4D54B4EED3B9}" name="数值" dataDxfId="261"/>
-    <tableColumn id="2" xr3:uid="{8D8BF1DB-93D5-418F-BF09-2655D6ABBEE4}" name="样式" dataDxfId="260"/>
+    <tableColumn id="1" xr3:uid="{C500696E-8958-4A42-8927-4D54B4EED3B9}" name="数值" dataDxfId="256"/>
+    <tableColumn id="2" xr3:uid="{8D8BF1DB-93D5-418F-BF09-2655D6ABBEE4}" name="样式" dataDxfId="255"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A410:C411" headerRowCount="0" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A412:C413" headerRowCount="0" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B0573E76-7CDB-4A4D-9DE2-84DB8DE79DB8}" name="列1" headerRowDxfId="57" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{2CB803CF-2E94-451E-B0A3-68C56EB18C1A}" name="列2" headerRowDxfId="55" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{BB5F60F5-4709-4D63-B661-D4DE2BE0D153}" name="列3" headerRowDxfId="53" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{B0573E76-7CDB-4A4D-9DE2-84DB8DE79DB8}" name="列1" headerRowDxfId="52" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{2CB803CF-2E94-451E-B0A3-68C56EB18C1A}" name="列2" headerRowDxfId="50" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{BB5F60F5-4709-4D63-B661-D4DE2BE0D153}" name="列3" headerRowDxfId="48" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE80DC1E-FD8B-4B96-A22D-C636A122AFD8}" name="表1" displayName="表1" ref="A41:C47" headerRowCount="0" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE80DC1E-FD8B-4B96-A22D-C636A122AFD8}" name="表1" displayName="表1" ref="A43:C49" headerRowCount="0" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4BF342D8-B638-484B-8383-79BC53DA9EBF}" name="列1" headerRowDxfId="49" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{A9F6FB60-21BF-4722-ACF9-9EFD8C61DC4A}" name="列2" headerRowDxfId="47" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{01C56ADD-2370-4596-8BCD-1D650D881B77}" name="列3" headerRowDxfId="45" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{4BF342D8-B638-484B-8383-79BC53DA9EBF}" name="列1" headerRowDxfId="44" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{A9F6FB60-21BF-4722-ACF9-9EFD8C61DC4A}" name="列2" headerRowDxfId="42" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{01C56ADD-2370-4596-8BCD-1D650D881B77}" name="列3" headerRowDxfId="40" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3E3BDE4-06B7-4669-B778-BE50FD34A48F}" name="表2" displayName="表2" ref="A49:C55" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A3E3BDE4-06B7-4669-B778-BE50FD34A48F}" name="表2" displayName="表2" ref="A51:C57" headerRowCount="0" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7B0DC4D2-BD10-4FA8-868B-38E449288781}" name="列1" headerRowDxfId="41" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{1D55AB70-9EC9-4900-A861-C7B20CA81314}" name="列2" headerRowDxfId="39" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{840807B2-AF1E-4D66-8ADD-32A70889FE14}" name="列3" headerRowDxfId="37" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{7B0DC4D2-BD10-4FA8-868B-38E449288781}" name="列1" headerRowDxfId="36" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{1D55AB70-9EC9-4900-A861-C7B20CA81314}" name="列2" headerRowDxfId="34" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{840807B2-AF1E-4D66-8ADD-32A70889FE14}" name="列3" headerRowDxfId="32" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99C6824C-57F1-4294-AAC6-CF47D0A779DB}" name="表4" displayName="表4" ref="A56:C57" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99C6824C-57F1-4294-AAC6-CF47D0A779DB}" name="表4" displayName="表4" ref="A58:C59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{54D29EFF-0B7D-40A5-A5AF-6AF25CF28815}" name="列1" headerRowDxfId="32" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{F905C7CF-AC1F-4871-A07B-3168F65FEA70}" name="列2" headerRowDxfId="30" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{8AF5136A-2288-4327-8CD1-EA7E8C278CDB}" name="列3" headerRowDxfId="28" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{54D29EFF-0B7D-40A5-A5AF-6AF25CF28815}" name="列1" headerRowDxfId="27" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{F905C7CF-AC1F-4871-A07B-3168F65FEA70}" name="列2" headerRowDxfId="25" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{8AF5136A-2288-4327-8CD1-EA7E8C278CDB}" name="列3" headerRowDxfId="23" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A186AB07-8524-4E36-8FB0-7D5DE93D5B7F}" name="表3" displayName="表3" ref="E208:F224" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="E208:F224" xr:uid="{A186AB07-8524-4E36-8FB0-7D5DE93D5B7F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A186AB07-8524-4E36-8FB0-7D5DE93D5B7F}" name="表3" displayName="表3" ref="E210:F226" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="E210:F226" xr:uid="{A186AB07-8524-4E36-8FB0-7D5DE93D5B7F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D6F9ADE-BB2A-4BA5-9CD9-18CE4EAB7E08}" name="地表类型索引" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{5D9AE917-A137-44C2-B093-E45137056588}" name="返回值" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{6D6F9ADE-BB2A-4BA5-9CD9-18CE4EAB7E08}" name="地表类型索引" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{5D9AE917-A137-44C2-B093-E45137056588}" name="返回值" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{08907876-9312-432F-8413-3E9465F0E0BE}" name="表5" displayName="表5" ref="A414:C419" headerRowCount="0" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{08907876-9312-432F-8413-3E9465F0E0BE}" name="表5" displayName="表5" ref="A416:C421" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A0B12E05-DA5D-4F3C-AFAE-C976C301A6E1}" name="列1" headerRowDxfId="19" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{7539B8D2-C8AF-4692-9890-6E9EA428F9FE}" name="列2" headerRowDxfId="17" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{909A71F0-C87A-416B-A663-20E7A2105FC4}" name="列3" headerRowDxfId="15" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{A0B12E05-DA5D-4F3C-AFAE-C976C301A6E1}" name="列1" headerRowDxfId="14" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7539B8D2-C8AF-4692-9890-6E9EA428F9FE}" name="列2" headerRowDxfId="12" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{909A71F0-C87A-416B-A663-20E7A2105FC4}" name="列3" headerRowDxfId="10" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8F2AEEAA-AA5F-4150-98B7-154474AC7231}" name="表12" displayName="表12" ref="A33:C36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8F2AEEAA-AA5F-4150-98B7-154474AC7231}" name="表12" displayName="表12" ref="A33:C38" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FA964A4D-31BE-4358-BBE5-E0FE65B9DD78}" name="列1" headerRowDxfId="0" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{2B9DCFCA-DB35-4F9C-B6EF-EC733C466C32}" name="列2" headerRowDxfId="1" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{D39E4F18-25C7-42FC-9D33-778D1BE79680}" name="列3" headerRowDxfId="2" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FA964A4D-31BE-4358-BBE5-E0FE65B9DD78}" name="列1" headerRowDxfId="5" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2B9DCFCA-DB35-4F9C-B6EF-EC733C466C32}" name="列2" headerRowDxfId="3" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D39E4F18-25C7-42FC-9D33-778D1BE79680}" name="列3" headerRowDxfId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6E80F00C-BEFA-4801-8DBE-092AA27A1453}" name="表13" displayName="表13" ref="A59:C70" totalsRowShown="0" headerRowDxfId="259" dataDxfId="257" headerRowBorderDxfId="258" tableBorderDxfId="256">
-  <autoFilter ref="A59:C70" xr:uid="{6E80F00C-BEFA-4801-8DBE-092AA27A1453}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6E80F00C-BEFA-4801-8DBE-092AA27A1453}" name="表13" displayName="表13" ref="A61:C72" totalsRowShown="0" headerRowDxfId="254" dataDxfId="252" headerRowBorderDxfId="253" tableBorderDxfId="251">
+  <autoFilter ref="A61:C72" xr:uid="{6E80F00C-BEFA-4801-8DBE-092AA27A1453}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A06B8584-D591-4B70-8FFC-7C5F05BCD828}" name="类型" dataDxfId="255"/>
-    <tableColumn id="2" xr3:uid="{DA7D6B7A-1C26-4D8E-843E-B89D19E8FFE0}" name="名称" dataDxfId="254"/>
-    <tableColumn id="3" xr3:uid="{E58AF128-84DB-4071-8800-17E25228B6CB}" name="注释" dataDxfId="253"/>
+    <tableColumn id="1" xr3:uid="{A06B8584-D591-4B70-8FFC-7C5F05BCD828}" name="类型" dataDxfId="250"/>
+    <tableColumn id="2" xr3:uid="{DA7D6B7A-1C26-4D8E-843E-B89D19E8FFE0}" name="名称" dataDxfId="249"/>
+    <tableColumn id="3" xr3:uid="{E58AF128-84DB-4071-8800-17E25228B6CB}" name="注释" dataDxfId="248"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5523E5EC-0EDB-4DA0-9288-11B914B3CB4D}" name="表14" displayName="表14" ref="A72:C88" headerRowCount="0" totalsRowShown="0" headerRowDxfId="252" dataDxfId="251" tableBorderDxfId="250">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5523E5EC-0EDB-4DA0-9288-11B914B3CB4D}" name="表14" displayName="表14" ref="A74:C90" headerRowCount="0" totalsRowShown="0" headerRowDxfId="247" dataDxfId="246" tableBorderDxfId="245">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{564E152F-951B-4BA7-BE49-C541B1B2DA26}" name="列1" headerRowDxfId="249" dataDxfId="248"/>
-    <tableColumn id="2" xr3:uid="{358A7BEA-A911-4DB1-9502-AB1C45DD9641}" name="列2" headerRowDxfId="247" dataDxfId="246"/>
-    <tableColumn id="3" xr3:uid="{A7DC9902-82AC-4EF0-99D3-8376146FEB34}" name="列3" headerRowDxfId="245" dataDxfId="244"/>
+    <tableColumn id="1" xr3:uid="{564E152F-951B-4BA7-BE49-C541B1B2DA26}" name="列1" headerRowDxfId="244" dataDxfId="243"/>
+    <tableColumn id="2" xr3:uid="{358A7BEA-A911-4DB1-9502-AB1C45DD9641}" name="列2" headerRowDxfId="242" dataDxfId="241"/>
+    <tableColumn id="3" xr3:uid="{A7DC9902-82AC-4EF0-99D3-8376146FEB34}" name="列3" headerRowDxfId="240" dataDxfId="239"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2EE76103-06B7-44A6-856F-A7C78180D086}" name="表15" displayName="表15" ref="A89:C94" headerRowCount="0" totalsRowShown="0" headerRowDxfId="243" dataDxfId="242">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2EE76103-06B7-44A6-856F-A7C78180D086}" name="表15" displayName="表15" ref="A91:C96" headerRowCount="0" totalsRowShown="0" headerRowDxfId="238" dataDxfId="237">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7FD32AA1-5176-4522-9378-C009BF6FFA0D}" name="列1" headerRowDxfId="241" dataDxfId="240"/>
-    <tableColumn id="2" xr3:uid="{09F1461F-D1C3-4B5C-AB5A-B1327EAF1F4C}" name="列2" headerRowDxfId="239" dataDxfId="238"/>
-    <tableColumn id="3" xr3:uid="{97FD0586-0730-4018-AB16-D79B08C545DA}" name="列3" headerRowDxfId="237" dataDxfId="236"/>
+    <tableColumn id="1" xr3:uid="{7FD32AA1-5176-4522-9378-C009BF6FFA0D}" name="列1" headerRowDxfId="236" dataDxfId="235"/>
+    <tableColumn id="2" xr3:uid="{09F1461F-D1C3-4B5C-AB5A-B1327EAF1F4C}" name="列2" headerRowDxfId="234" dataDxfId="233"/>
+    <tableColumn id="3" xr3:uid="{97FD0586-0730-4018-AB16-D79B08C545DA}" name="列3" headerRowDxfId="232" dataDxfId="231"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{0FB9E816-7EF4-4D20-B51F-FF77FF860367}" name="表18" displayName="表18" ref="A96:C112" headerRowCount="0" totalsRowShown="0" headerRowDxfId="235" dataDxfId="234">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{0FB9E816-7EF4-4D20-B51F-FF77FF860367}" name="表18" displayName="表18" ref="A98:C114" headerRowCount="0" totalsRowShown="0" headerRowDxfId="230" dataDxfId="229">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E826E7E1-0AB7-4705-A2EF-3F2ADF498D62}" name="列1" headerRowDxfId="233" dataDxfId="232"/>
-    <tableColumn id="2" xr3:uid="{3D99BD90-87A4-4B9E-9AD8-33EF1F84326D}" name="列2" headerRowDxfId="231" dataDxfId="230"/>
-    <tableColumn id="3" xr3:uid="{D68400B2-BABD-4B5F-86B4-D972608835F4}" name="列3" headerRowDxfId="229" dataDxfId="228"/>
+    <tableColumn id="1" xr3:uid="{E826E7E1-0AB7-4705-A2EF-3F2ADF498D62}" name="列1" headerRowDxfId="228" dataDxfId="227"/>
+    <tableColumn id="2" xr3:uid="{3D99BD90-87A4-4B9E-9AD8-33EF1F84326D}" name="列2" headerRowDxfId="226" dataDxfId="225"/>
+    <tableColumn id="3" xr3:uid="{D68400B2-BABD-4B5F-86B4-D972608835F4}" name="列3" headerRowDxfId="224" dataDxfId="223"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{8773F0F5-F429-4568-A5CE-259F04912EC3}" name="表19" displayName="表19" ref="A113:C118" headerRowCount="0" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{8773F0F5-F429-4568-A5CE-259F04912EC3}" name="表19" displayName="表19" ref="A115:C120" headerRowCount="0" totalsRowShown="0" headerRowDxfId="222" dataDxfId="221">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9D88B2F8-1E8F-463E-8DE8-71AA7544EB67}" name="列1" headerRowDxfId="225" dataDxfId="224"/>
-    <tableColumn id="2" xr3:uid="{55F92031-FABF-443D-A7DB-B108E0BA055A}" name="列2" headerRowDxfId="223" dataDxfId="222"/>
-    <tableColumn id="3" xr3:uid="{81C15D0F-DF94-4862-8FAA-426C82A23ED5}" name="列3" headerRowDxfId="221" dataDxfId="220"/>
+    <tableColumn id="1" xr3:uid="{9D88B2F8-1E8F-463E-8DE8-71AA7544EB67}" name="列1" headerRowDxfId="220" dataDxfId="219"/>
+    <tableColumn id="2" xr3:uid="{55F92031-FABF-443D-A7DB-B108E0BA055A}" name="列2" headerRowDxfId="218" dataDxfId="217"/>
+    <tableColumn id="3" xr3:uid="{81C15D0F-DF94-4862-8FAA-426C82A23ED5}" name="列3" headerRowDxfId="216" dataDxfId="215"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{28E57FE5-0926-4CE1-AF90-862E513FF076}" name="表20" displayName="表20" ref="A120:C134" headerRowCount="0" totalsRowShown="0" headerRowDxfId="219" dataDxfId="218">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{28E57FE5-0926-4CE1-AF90-862E513FF076}" name="表20" displayName="表20" ref="A122:C136" headerRowCount="0" totalsRowShown="0" headerRowDxfId="214" dataDxfId="213">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D0D3DABC-3E12-492D-BFF0-91A3B8B0F5EB}" name="列1" headerRowDxfId="217" dataDxfId="216"/>
-    <tableColumn id="2" xr3:uid="{6CAF8CFB-BC89-402B-AF6D-8D17803514DD}" name="列2" headerRowDxfId="215" dataDxfId="214"/>
-    <tableColumn id="3" xr3:uid="{A9E85E4E-0AB9-4101-B377-CEE919A54DA4}" name="列3" headerRowDxfId="213" dataDxfId="212"/>
+    <tableColumn id="1" xr3:uid="{D0D3DABC-3E12-492D-BFF0-91A3B8B0F5EB}" name="列1" headerRowDxfId="212" dataDxfId="211"/>
+    <tableColumn id="2" xr3:uid="{6CAF8CFB-BC89-402B-AF6D-8D17803514DD}" name="列2" headerRowDxfId="210" dataDxfId="209"/>
+    <tableColumn id="3" xr3:uid="{A9E85E4E-0AB9-4101-B377-CEE919A54DA4}" name="列3" headerRowDxfId="208" dataDxfId="207"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17410,10 +17430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF381881-FCB8-4D63-A433-CD8B5CF734B8}">
-  <dimension ref="A1:F419"/>
+  <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B414" sqref="B414"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -17428,11 +17448,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -17736,7 +17756,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>777</v>
@@ -17754,14 +17774,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>788</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="20" t="s">
         <v>787</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -17816,235 +17836,223 @@
         <v>786</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="41" spans="1:6" ht="64" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
         <v>701</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="E40" s="5">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="E42" s="5">
         <v>0</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="31" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="43" spans="1:6" ht="31" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>705</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E42" s="5">
-        <v>2</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E43" s="5">
-        <v>3</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E46" s="5">
         <v>4</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E47" s="5">
         <v>6</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="31" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="48" spans="1:6" ht="31" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E48" s="5">
         <v>7</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E49" s="5">
         <v>8</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="E48" s="5">
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="E50" s="5">
         <v>10</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E51" s="5">
         <v>11</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>713</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E50" s="5">
-        <v>12</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E51" s="5">
-        <v>13</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -18052,117 +18060,129 @@
         <v>31</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E52" s="5">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E53" s="5">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E54" s="5">
         <v>14</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E55" s="5">
         <v>16</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="31" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row r="58" spans="1:6" ht="31" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
+    <row r="60" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
         <v>668</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -18170,10 +18190,10 @@
         <v>34</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -18181,21 +18201,21 @@
         <v>34</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="31" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -18203,175 +18223,171 @@
         <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" ht="47" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="47" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="22" t="s">
-        <v>669</v>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="A73" s="23" t="s">
+        <v>669</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -18381,10 +18397,10 @@
         <v>27</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -18394,10 +18410,10 @@
         <v>27</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -18407,10 +18423,10 @@
         <v>27</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -18420,10 +18436,10 @@
         <v>27</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -18433,253 +18449,253 @@
         <v>27</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" ht="46" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="46" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>405</v>
+        <v>48</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>407</v>
+        <v>50</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="22" t="s">
-        <v>670</v>
-      </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
+    <row r="95" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="A97" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -18689,10 +18705,10 @@
         <v>27</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -18702,10 +18718,10 @@
         <v>27</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -18715,10 +18731,10 @@
         <v>27</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -18728,10 +18744,10 @@
         <v>27</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -18741,36 +18757,36 @@
         <v>27</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -18780,208 +18796,208 @@
         <v>27</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" ht="46" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" ht="46" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
+        <v>415</v>
+      </c>
     </row>
     <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="B118" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="22" t="s">
-        <v>671</v>
-      </c>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="A121" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -18991,10 +19007,10 @@
         <v>27</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -19004,10 +19020,10 @@
         <v>27</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -19017,10 +19033,10 @@
         <v>27</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -19030,279 +19046,279 @@
         <v>27</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" ht="46" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="46" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="22" t="s">
-        <v>672</v>
-      </c>
-      <c r="B141" s="22"/>
-      <c r="C141" s="22"/>
+    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>428</v>
+      </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>387</v>
-      </c>
+      <c r="A143" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -19312,62 +19328,62 @@
         <v>27</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -19377,10 +19393,10 @@
         <v>27</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -19390,47 +19406,49 @@
         <v>27</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="46" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -19440,172 +19458,170 @@
         <v>34</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:5" ht="62" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="46" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="62" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="23" t="s">
-        <v>673</v>
-      </c>
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
+    <row r="171" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>451</v>
+      </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>334</v>
+    <row r="172" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="22" t="s">
-        <v>674</v>
-      </c>
-      <c r="B173" s="22"/>
-      <c r="C173" s="22"/>
+    <row r="173" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="B173" s="24"/>
+      <c r="C173" s="24"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>389</v>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>390</v>
-      </c>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="B175" s="23"/>
+      <c r="C175" s="23"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
@@ -19614,10 +19630,10 @@
         <v>83</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -19627,10 +19643,10 @@
         <v>83</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -19640,10 +19656,10 @@
         <v>83</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -19653,10 +19669,10 @@
         <v>83</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -19666,10 +19682,10 @@
         <v>83</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -19679,10 +19695,10 @@
         <v>83</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -19692,10 +19708,10 @@
         <v>83</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -19705,10 +19721,10 @@
         <v>83</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -19718,10 +19734,10 @@
         <v>83</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -19731,10 +19747,10 @@
         <v>83</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -19744,75 +19760,75 @@
         <v>83</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>769</v>
+        <v>247</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>770</v>
+        <v>248</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>465</v>
+        <v>771</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>769</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>466</v>
+        <v>249</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>770</v>
       </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -19822,253 +19838,243 @@
         <v>25</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D204" s="1"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="22" t="s">
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="B205" s="22"/>
-      <c r="C205" s="22"/>
-      <c r="D205" s="1"/>
-    </row>
-    <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
+      <c r="B207" s="23"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C208" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D206" s="1"/>
-    </row>
-    <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="D207" s="1"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="D208" s="1"/>
-      <c r="E208" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D209" s="1"/>
-      <c r="E209" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>738</v>
-      </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="D210" s="1"/>
-      <c r="E210" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>739</v>
+      <c r="E210" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -20076,17 +20082,17 @@
         <v>94</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -20094,14 +20100,14 @@
         <v>94</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>739</v>
@@ -20112,14 +20118,14 @@
         <v>94</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>718</v>
+        <v>252</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>739</v>
@@ -20130,107 +20136,107 @@
         <v>94</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="31" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C215" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="31" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>489</v>
+        <v>266</v>
+      </c>
+      <c r="C217" s="14" t="s">
+        <v>719</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="32" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20238,17 +20244,17 @@
         <v>101</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="32" x14ac:dyDescent="0.3">
@@ -20256,17 +20262,17 @@
         <v>101</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20274,179 +20280,181 @@
         <v>101</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="32" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E226" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C229" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E229" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F227" s="5" t="s">
+      <c r="F229" s="5" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="21" t="s">
+    <row r="230" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="22" t="s">
         <v>676</v>
       </c>
-      <c r="B228" s="21"/>
-      <c r="C228" s="21"/>
-      <c r="E228" s="2" t="s">
+      <c r="B230" s="22"/>
+      <c r="C230" s="22"/>
+      <c r="E230" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F228" s="5" t="s">
+      <c r="F230" s="5" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="A229" s="12" t="s">
+    <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+      <c r="A231" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B231" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C229" s="10" t="s">
+      <c r="C231" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E229" s="2" t="s">
+      <c r="E231" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F229" s="5" t="s">
+      <c r="F231" s="5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="48" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
+    <row r="232" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C232" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E232" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F230" s="5" t="s">
+      <c r="F232" s="5" t="s">
         <v>659</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F231" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="16" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F232" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.3">
@@ -20454,163 +20462,171 @@
         <v>129</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D233" s="1"/>
+        <v>501</v>
+      </c>
       <c r="E233" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="31" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D234" s="1"/>
+        <v>502</v>
+      </c>
       <c r="E234" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="47" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D235" s="1"/>
       <c r="E235" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>660</v>
+        <v>125</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="31" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D236" s="1"/>
+      <c r="E236" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="47" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D237" s="1"/>
+      <c r="E237" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="31" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E236" s="2" t="s">
+      <c r="E238" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F236" s="5" t="s">
+      <c r="F238" s="5" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="31" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F237" s="5" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="32" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="31" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="16" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="32" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
+        <v>509</v>
+      </c>
     </row>
     <row r="242" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
+        <v>510</v>
+      </c>
     </row>
     <row r="243" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -20620,75 +20636,75 @@
         <v>93</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -20698,84 +20714,84 @@
         <v>93</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="21" t="s">
-        <v>679</v>
-      </c>
-      <c r="B253" s="21"/>
-      <c r="C253" s="21"/>
+    <row r="253" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>521</v>
+      </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>334</v>
+    <row r="254" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>523</v>
-      </c>
+    <row r="255" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="B255" s="22"/>
+      <c r="C255" s="22"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>524</v>
+      <c r="A256" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -20785,23 +20801,23 @@
         <v>101</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="C258" s="18" t="s">
-        <v>762</v>
+        <v>154</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -20811,23 +20827,23 @@
         <v>101</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>527</v>
+        <v>761</v>
+      </c>
+      <c r="C260" s="18" t="s">
+        <v>762</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -20837,10 +20853,10 @@
         <v>101</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -20850,10 +20866,10 @@
         <v>101</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>767</v>
+        <v>527</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -20863,10 +20879,10 @@
         <v>101</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -20876,10 +20892,10 @@
         <v>101</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>530</v>
+        <v>767</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -20889,23 +20905,23 @@
         <v>101</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="C266" s="18" t="s">
-        <v>766</v>
+        <v>161</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -20915,36 +20931,36 @@
         <v>101</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>533</v>
+        <v>765</v>
+      </c>
+      <c r="C268" s="18" t="s">
+        <v>766</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -20954,258 +20970,258 @@
         <v>101</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>768</v>
+        <v>535</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>692</v>
+        <v>101</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>693</v>
+        <v>165</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>694</v>
+        <v>536</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>695</v>
+        <v>101</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>696</v>
+        <v>166</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>697</v>
+        <v>768</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
     <row r="275" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>699</v>
+        <v>693</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="B276" s="21"/>
-      <c r="C276" s="21"/>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>697</v>
+      </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C277" s="10" t="s">
-        <v>334</v>
+    <row r="277" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>699</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B278" s="22"/>
       <c r="C278" s="22"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>537</v>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>538</v>
-      </c>
+      <c r="A280" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="B280" s="23"/>
+      <c r="C280" s="23"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="20" t="s">
-        <v>682</v>
-      </c>
-      <c r="B282" s="20"/>
-      <c r="C282" s="20"/>
+      <c r="A282" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>538</v>
+      </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" spans="1:5" ht="31" x14ac:dyDescent="0.3">
-      <c r="A284" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>541</v>
-      </c>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="21" t="s">
+        <v>682</v>
+      </c>
+      <c r="B284" s="21"/>
+      <c r="C284" s="21"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>337</v>
+        <v>540</v>
       </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>543</v>
+        <v>337</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -21215,10 +21231,10 @@
         <v>174</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -21228,127 +21244,127 @@
         <v>174</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>689</v>
+        <v>279</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>552</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>691</v>
+        <v>280</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>554</v>
+        <v>688</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>689</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>555</v>
+        <v>690</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -21358,23 +21374,23 @@
         <v>175</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>687</v>
+        <v>281</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -21384,88 +21400,88 @@
         <v>175</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>260</v>
+        <v>687</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
     <row r="310" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -21475,110 +21491,110 @@
         <v>175</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="20" t="s">
-        <v>683</v>
-      </c>
-      <c r="B312" s="20"/>
-      <c r="C312" s="20"/>
+    <row r="312" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" ht="31" x14ac:dyDescent="0.3">
-      <c r="A314" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>567</v>
-      </c>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="21" t="s">
+        <v>683</v>
+      </c>
+      <c r="B314" s="21"/>
+      <c r="C314" s="21"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>337</v>
+        <v>566</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>569</v>
+        <v>337</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -21588,10 +21604,10 @@
         <v>170</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -21601,75 +21617,75 @@
         <v>170</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -21679,36 +21695,36 @@
         <v>186</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -21718,10 +21734,10 @@
         <v>174</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -21731,10 +21747,10 @@
         <v>174</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -21744,49 +21760,49 @@
         <v>174</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>687</v>
+        <v>275</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
     <row r="335" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -21796,10 +21812,10 @@
         <v>175</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>260</v>
+        <v>687</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -21809,10 +21825,10 @@
         <v>175</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -21822,123 +21838,123 @@
         <v>175</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
     <row r="339" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="B340" s="20"/>
-      <c r="C340" s="20"/>
+    <row r="340" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>589</v>
+      </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" ht="31" x14ac:dyDescent="0.3">
-      <c r="A342" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>592</v>
-      </c>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="B342" s="21"/>
+      <c r="C342" s="21"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>337</v>
+        <v>591</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
     <row r="344" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>594</v>
+        <v>337</v>
       </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -21948,10 +21964,10 @@
         <v>175</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -21961,10 +21977,10 @@
         <v>175</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -21974,23 +21990,23 @@
         <v>175</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -22000,136 +22016,136 @@
         <v>175</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="20" t="s">
-        <v>685</v>
-      </c>
-      <c r="B354" s="20"/>
-      <c r="C354" s="20"/>
+    <row r="354" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>601</v>
+      </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" ht="31" x14ac:dyDescent="0.3">
-      <c r="A356" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>604</v>
-      </c>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>337</v>
+        <v>603</v>
       </c>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>606</v>
+        <v>337</v>
       </c>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -22139,10 +22155,10 @@
         <v>175</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -22152,10 +22168,10 @@
         <v>175</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -22165,23 +22181,23 @@
         <v>175</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -22191,110 +22207,110 @@
         <v>175</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" s="20" t="s">
-        <v>686</v>
-      </c>
-      <c r="B369" s="20"/>
-      <c r="C369" s="20"/>
+    <row r="369" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>614</v>
+      </c>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" ht="31" x14ac:dyDescent="0.3">
-      <c r="A371" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>617</v>
-      </c>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="B371" s="21"/>
+      <c r="C371" s="21"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>337</v>
+        <v>616</v>
       </c>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>619</v>
+        <v>337</v>
       </c>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -22304,36 +22320,36 @@
         <v>170</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>307</v>
+        <v>190</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>308</v>
+        <v>169</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -22343,10 +22359,10 @@
         <v>170</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -22356,10 +22372,10 @@
         <v>170</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>570</v>
+        <v>623</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -22369,10 +22385,10 @@
         <v>170</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -22382,10 +22398,10 @@
         <v>170</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>219</v>
+        <v>310</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -22395,10 +22411,10 @@
         <v>170</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -22408,36 +22424,36 @@
         <v>170</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -22447,10 +22463,10 @@
         <v>174</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -22460,10 +22476,10 @@
         <v>174</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -22473,10 +22489,10 @@
         <v>174</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -22486,10 +22502,10 @@
         <v>174</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -22499,10 +22515,10 @@
         <v>174</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -22512,10 +22528,10 @@
         <v>174</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -22525,10 +22541,10 @@
         <v>174</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -22538,10 +22554,10 @@
         <v>174</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -22551,10 +22567,10 @@
         <v>174</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -22564,10 +22580,10 @@
         <v>174</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -22577,10 +22593,10 @@
         <v>174</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -22590,10 +22606,10 @@
         <v>174</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -22603,10 +22619,10 @@
         <v>174</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -22616,10 +22632,10 @@
         <v>174</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -22629,10 +22645,10 @@
         <v>174</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -22642,10 +22658,10 @@
         <v>174</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -22655,10 +22671,10 @@
         <v>174</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -22668,10 +22684,10 @@
         <v>174</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -22681,36 +22697,36 @@
         <v>174</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -22720,116 +22736,120 @@
         <v>175</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
+    </row>
+    <row r="409" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>652</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
     </row>
     <row r="410" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C410" s="2" t="s">
+      <c r="C412" s="2" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A411" s="2" t="s">
+    <row r="413" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B413" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C411" s="2" t="s">
+      <c r="C413" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="21" t="s">
+    <row r="414" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="B412" s="21"/>
-      <c r="C412" s="21"/>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A413" s="15" t="s">
+      <c r="B414" s="22"/>
+      <c r="C414" s="22"/>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B413" s="16" t="s">
+      <c r="B415" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C413" s="17" t="s">
+      <c r="C415" s="17" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A414" s="2" t="s">
+    <row r="416" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B416" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="C414" s="3" t="s">
+      <c r="C416" s="3" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A415" s="2" t="s">
+    <row r="417" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B417" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="C415" s="19" t="s">
+      <c r="C417" s="19" t="s">
         <v>753</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A416" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C416" s="18" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A417" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C417" s="14" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>756</v>
+        <v>29</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C418" s="14" t="s">
-        <v>758</v>
+        <v>748</v>
+      </c>
+      <c r="C418" s="18" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -22837,37 +22857,59 @@
         <v>29</v>
       </c>
       <c r="B419" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C419" s="14" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C420" s="14" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C419" s="18" t="s">
+      <c r="C421" s="18" t="s">
         <v>759</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A121:C121"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A143:C143"/>
     <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="A371:C371"/>
+    <mergeCell ref="A255:C255"/>
     <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A314:C314"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Supplementary/文档/Lua脚本文档.xlsx
+++ b/Supplementary/文档/Lua脚本文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YURI\源码\FA2spHDM\Supplementary\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D71BF07-2B2E-457B-A3C9-9348CE135FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB1FCD1-9645-4399-86F6-967B28FE7CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1370" windowWidth="31590" windowHeight="15280" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8CA9C43F-A422-443C-91EB-82DDAA2DCA05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="797">
   <si>
     <t>iso_size()</t>
   </si>
@@ -12268,6 +12268,46 @@
   </si>
   <si>
     <t>game_path()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table&lt;int, table&lt;string, string&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_ordered_key_value_pairs(string section, [string load_from])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小节的有序键值对</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12573,7 +12613,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12582,10 +12622,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16791,8 +16831,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{95C8C70F-0A08-40EE-882E-F9E7CBD319C1}" name="表30" displayName="表30" ref="A231:C254" totalsRowShown="0" headerRowDxfId="148" dataDxfId="146" headerRowBorderDxfId="147" tableBorderDxfId="145">
-  <autoFilter ref="A231:C254" xr:uid="{95C8C70F-0A08-40EE-882E-F9E7CBD319C1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{95C8C70F-0A08-40EE-882E-F9E7CBD319C1}" name="表30" displayName="表30" ref="A231:C255" totalsRowShown="0" headerRowDxfId="148" dataDxfId="146" headerRowBorderDxfId="147" tableBorderDxfId="145">
+  <autoFilter ref="A231:C255" xr:uid="{95C8C70F-0A08-40EE-882E-F9E7CBD319C1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16807,8 +16847,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A256:C276" totalsRowShown="0" headerRowDxfId="141" dataDxfId="139" headerRowBorderDxfId="140">
-  <autoFilter ref="A256:C276" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}" name="表32" displayName="表32" ref="A257:C277" totalsRowShown="0" headerRowDxfId="141" dataDxfId="139" headerRowBorderDxfId="140">
+  <autoFilter ref="A257:C277" xr:uid="{A625B1F9-0F50-4D0F-8C0A-5ED0E6B2DDF9}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -16839,7 +16879,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A281:C283" headerRowCount="0" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134" tableBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{27BF2D36-DEA5-4D7D-A02E-D1960B66BF3A}" name="表33" displayName="表33" ref="A282:C284" headerRowCount="0" totalsRowShown="0" headerRowDxfId="135" dataDxfId="134" tableBorderDxfId="133">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6EE63355-C87E-4E89-957B-33338EEBECA8}" name="列1" headerRowDxfId="132" dataDxfId="131"/>
     <tableColumn id="2" xr3:uid="{0371C133-76AF-4CE7-A076-F98E09274777}" name="列2" headerRowDxfId="130" dataDxfId="129"/>
@@ -16850,7 +16890,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A285:C307" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{8FB12F79-BB88-42D0-83BD-F39A55B7E820}" name="表35" displayName="表35" ref="A286:C308" headerRowCount="0" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F870DA49-FE02-4965-9BA2-C22DA388F93A}" name="列1" headerRowDxfId="124" dataDxfId="123"/>
     <tableColumn id="2" xr3:uid="{EDF4AD17-EFC3-4C50-9D98-69E7C9B397BD}" name="列2" headerRowDxfId="122" dataDxfId="121"/>
@@ -16861,7 +16901,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A308:C313" headerRowCount="0" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{E9766F59-B15E-4AD3-B3D7-262CE2928852}" name="表36" displayName="表36" ref="A309:C314" headerRowCount="0" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{66CF4FA4-633B-4807-9EB1-5660FC10D615}" name="列1" headerRowDxfId="116" dataDxfId="115"/>
     <tableColumn id="2" xr3:uid="{C9A87010-2F92-41C3-B254-5F9C97D11A53}" name="列2" headerRowDxfId="114" dataDxfId="113"/>
@@ -16872,7 +16912,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A315:C339" headerRowCount="0" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{250E9382-27E7-4D3C-8936-B3DAA52489C5}" name="表37" displayName="表37" ref="A316:C340" headerRowCount="0" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{67376287-A809-402E-9EE3-4A52F04A489A}" name="列1" headerRowDxfId="108" dataDxfId="107"/>
     <tableColumn id="2" xr3:uid="{C2A420D8-59DE-475C-A75B-E7A23356AD31}" name="列2" headerRowDxfId="106" dataDxfId="105"/>
@@ -16883,7 +16923,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A340:C341" headerRowCount="0" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{8115E9C9-98D1-4E31-BCB7-7C5CF91E154F}" name="表38" displayName="表38" ref="A341:C342" headerRowCount="0" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A6DC2AF6-8D4E-470E-82E1-E4DBCFFEBCCA}" name="列1" headerRowDxfId="100" dataDxfId="99"/>
     <tableColumn id="2" xr3:uid="{16863727-9F7B-4D75-ACD3-6C34CB540888}" name="列2" headerRowDxfId="98" dataDxfId="97"/>
@@ -16894,7 +16934,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A343:C353" headerRowCount="0" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{E767F6D9-C0B7-42B4-A27E-818704055CB7}" name="表39" displayName="表39" ref="A344:C354" headerRowCount="0" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1E43DFEC-54F6-4A6E-AE01-0F8079E2B5DE}" name="列1" headerRowDxfId="92" dataDxfId="91"/>
     <tableColumn id="2" xr3:uid="{D21AEF5D-B438-4474-A662-A11B1B10C205}" name="列2" headerRowDxfId="90" dataDxfId="89"/>
@@ -16905,7 +16945,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A354:C355" headerRowCount="0" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{C3193565-D840-4B42-AFBF-D25127E0A2E5}" name="表40" displayName="表40" ref="A355:C356" headerRowCount="0" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C9CB15BD-7716-4ED5-BF07-FF95E006404C}" name="列1" headerRowDxfId="84" dataDxfId="83"/>
     <tableColumn id="2" xr3:uid="{F4F3EB43-F114-4535-AA32-D687E6D8B359}" name="列2" headerRowDxfId="82" dataDxfId="81"/>
@@ -16916,7 +16956,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A357:C368" headerRowCount="0" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{082D2DAE-A19A-4C09-A888-4F917C2E37E1}" name="表41" displayName="表41" ref="A358:C369" headerRowCount="0" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A12B252F-D66B-4F1A-A738-89340EC8E765}" name="列1" headerRowDxfId="76" dataDxfId="75"/>
     <tableColumn id="2" xr3:uid="{2D4BA011-60EB-4554-9E50-E83EB5E0AA83}" name="列2" headerRowDxfId="74" dataDxfId="73"/>
@@ -16927,7 +16967,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A369:C370" headerRowCount="0" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{654F9517-D917-4876-8E8C-A4025B172B46}" name="表42" displayName="表42" ref="A370:C371" headerRowCount="0" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{909B7F4F-7182-4190-9C36-1D92BD462FC0}" name="列1" headerRowDxfId="68" dataDxfId="67"/>
     <tableColumn id="2" xr3:uid="{7F230A7B-6862-4AB3-8B6D-77FDDA42A087}" name="列2" headerRowDxfId="66" dataDxfId="65"/>
@@ -16938,7 +16978,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A372:C411" headerRowCount="0" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{080910EA-FBD0-4BCC-8740-FB7D3ED8D3B8}" name="表43" displayName="表43" ref="A373:C412" headerRowCount="0" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{753B7110-5D54-4DBB-A3D8-31CEFCADDDA6}" name="列1" headerRowDxfId="60" dataDxfId="59"/>
     <tableColumn id="2" xr3:uid="{197B782B-ABDA-406D-86E0-2F9663F3E896}" name="列2" headerRowDxfId="58" dataDxfId="57"/>
@@ -16963,7 +17003,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A412:C413" headerRowCount="0" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{0438A464-C262-4416-AF51-6FAA386CAD4A}" name="表44" displayName="表44" ref="A413:C414" headerRowCount="0" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B0573E76-7CDB-4A4D-9DE2-84DB8DE79DB8}" name="列1" headerRowDxfId="52" dataDxfId="51"/>
     <tableColumn id="2" xr3:uid="{2CB803CF-2E94-451E-B0A3-68C56EB18C1A}" name="列2" headerRowDxfId="50" dataDxfId="49"/>
@@ -17021,7 +17061,7 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{08907876-9312-432F-8413-3E9465F0E0BE}" name="表5" displayName="表5" ref="A416:C421" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{08907876-9312-432F-8413-3E9465F0E0BE}" name="表5" displayName="表5" ref="A417:C422" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{A0B12E05-DA5D-4F3C-AFAE-C976C301A6E1}" name="列1" headerRowDxfId="14" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{7539B8D2-C8AF-4692-9890-6E9EA428F9FE}" name="列2" headerRowDxfId="12" dataDxfId="11"/>
@@ -17430,10 +17470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF381881-FCB8-4D63-A433-CD8B5CF734B8}">
-  <dimension ref="A1:F421"/>
+  <dimension ref="A1:F422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -17448,11 +17488,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -17774,11 +17814,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="21" t="s">
         <v>788</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
@@ -17859,11 +17899,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
@@ -18168,11 +18208,11 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
@@ -19595,11 +19635,11 @@
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="24" t="s">
+      <c r="A173" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="B173" s="24"/>
-      <c r="C173" s="24"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="21"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
@@ -20516,7 +20556,7 @@
       <c r="B236" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="3" t="s">
         <v>504</v>
       </c>
       <c r="D236" s="1"/>
@@ -20527,15 +20567,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="47" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>129</v>
+        <v>794</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>505</v>
+        <v>795</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>796</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="2" t="s">
@@ -20545,15 +20585,15 @@
         <v>660</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="31" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" ht="47" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>121</v>
@@ -20564,13 +20604,13 @@
     </row>
     <row r="239" spans="1:6" ht="31" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>122</v>
@@ -20581,13 +20621,13 @@
     </row>
     <row r="240" spans="1:6" ht="32" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>662</v>
@@ -20598,24 +20638,24 @@
     </row>
     <row r="241" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="16" x14ac:dyDescent="0.3">
@@ -20623,23 +20663,23 @@
         <v>101</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
     <row r="244" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -20649,10 +20689,10 @@
         <v>93</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -20662,62 +20702,62 @@
         <v>93</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
-    <row r="247" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
     <row r="249" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -20727,10 +20767,10 @@
         <v>93</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -20740,10 +20780,10 @@
         <v>93</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -20753,58 +20793,58 @@
         <v>93</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
     <row r="255" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="B255" s="22"/>
-      <c r="C255" s="22"/>
+      <c r="A255" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>522</v>
+      </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>334</v>
-      </c>
+    <row r="256" spans="1:5" ht="23" x14ac:dyDescent="0.3">
+      <c r="A256" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="B256" s="22"/>
+      <c r="C256" s="22"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>523</v>
+      <c r="A257" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -20814,10 +20854,10 @@
         <v>101</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -20827,36 +20867,36 @@
         <v>101</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="C260" s="18" t="s">
-        <v>762</v>
+        <v>155</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>526</v>
+        <v>761</v>
+      </c>
+      <c r="C261" s="18" t="s">
+        <v>762</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -20866,10 +20906,10 @@
         <v>101</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -20879,10 +20919,10 @@
         <v>101</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -20892,10 +20932,10 @@
         <v>101</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>767</v>
+        <v>528</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -20905,10 +20945,10 @@
         <v>101</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>529</v>
+        <v>767</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -20918,10 +20958,10 @@
         <v>101</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -20931,88 +20971,88 @@
         <v>101</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="C268" s="18" t="s">
-        <v>766</v>
+        <v>162</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>532</v>
+        <v>765</v>
+      </c>
+      <c r="C269" s="18" t="s">
+        <v>766</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -21022,106 +21062,106 @@
         <v>101</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>768</v>
+        <v>536</v>
       </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>692</v>
+        <v>101</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>693</v>
+        <v>166</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>694</v>
+        <v>768</v>
       </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>695</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>697</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
     <row r="278" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="B278" s="22"/>
-      <c r="C278" s="22"/>
+      <c r="A278" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>699</v>
+      </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B279" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>334</v>
-      </c>
+    <row r="279" spans="1:5" ht="23" x14ac:dyDescent="0.3">
+      <c r="A279" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="B279" s="22"/>
+      <c r="C279" s="22"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="B280" s="23"/>
-      <c r="C280" s="23"/>
+      <c r="A280" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>334</v>
+      </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A281" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>537</v>
-      </c>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="B281" s="23"/>
+      <c r="C281" s="23"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -21131,58 +21171,58 @@
         <v>170</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="21" t="s">
-        <v>682</v>
-      </c>
-      <c r="B284" s="21"/>
-      <c r="C284" s="21"/>
+      <c r="A284" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>539</v>
+      </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A285" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>540</v>
-      </c>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="B285" s="25"/>
+      <c r="C285" s="25"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>337</v>
+        <v>541</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -21192,49 +21232,49 @@
         <v>170</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>542</v>
+        <v>337</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -21244,10 +21284,10 @@
         <v>174</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -21257,10 +21297,10 @@
         <v>174</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -21270,23 +21310,23 @@
         <v>174</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -21296,36 +21336,36 @@
         <v>177</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" spans="1:5" ht="48" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="48" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -21335,49 +21375,49 @@
         <v>175</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>689</v>
+        <v>280</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>553</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>554</v>
+        <v>690</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -21387,10 +21427,10 @@
         <v>175</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -21400,62 +21440,62 @@
         <v>175</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>687</v>
+        <v>282</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" spans="1:5" ht="32" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>283</v>
+        <v>687</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -21465,36 +21505,36 @@
         <v>175</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
     <row r="311" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -21504,10 +21544,10 @@
         <v>175</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -21517,71 +21557,71 @@
         <v>175</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="21" t="s">
-        <v>683</v>
-      </c>
-      <c r="B314" s="21"/>
-      <c r="C314" s="21"/>
+    <row r="314" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>565</v>
+      </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A315" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>566</v>
-      </c>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="B315" s="25"/>
+      <c r="C315" s="25"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>337</v>
+        <v>567</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>568</v>
+        <v>337</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -21591,23 +21631,23 @@
         <v>170</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -21617,10 +21657,10 @@
         <v>170</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -21630,10 +21670,10 @@
         <v>170</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -21643,62 +21683,62 @@
         <v>170</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -21708,10 +21748,10 @@
         <v>186</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -21721,23 +21761,23 @@
         <v>186</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -21747,10 +21787,10 @@
         <v>174</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -21760,10 +21800,10 @@
         <v>174</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -21773,10 +21813,10 @@
         <v>174</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -21786,36 +21826,36 @@
         <v>174</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
     <row r="336" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>687</v>
+        <v>299</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -21825,10 +21865,10 @@
         <v>175</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>283</v>
+        <v>687</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -21838,10 +21878,10 @@
         <v>175</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -21851,10 +21891,10 @@
         <v>175</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -21864,84 +21904,84 @@
         <v>175</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
     <row r="341" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="21" t="s">
-        <v>684</v>
-      </c>
-      <c r="B342" s="21"/>
-      <c r="C342" s="21"/>
+    <row r="342" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>590</v>
+      </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A343" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>591</v>
-      </c>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="B343" s="25"/>
+      <c r="C343" s="25"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
-    <row r="344" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>337</v>
+        <v>592</v>
       </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>593</v>
+        <v>337</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -21951,23 +21991,23 @@
         <v>185</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -21977,10 +22017,10 @@
         <v>175</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -21990,10 +22030,10 @@
         <v>175</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -22003,10 +22043,10 @@
         <v>175</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -22016,97 +22056,97 @@
         <v>175</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
     <row r="355" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" s="21" t="s">
-        <v>685</v>
-      </c>
-      <c r="B356" s="21"/>
-      <c r="C356" s="21"/>
+    <row r="356" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>602</v>
+      </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A357" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>603</v>
-      </c>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="B357" s="25"/>
+      <c r="C357" s="25"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>337</v>
+        <v>604</v>
       </c>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -22116,49 +22156,49 @@
         <v>170</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>605</v>
+        <v>337</v>
       </c>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>303</v>
+        <v>219</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
     <row r="362" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -22168,10 +22208,10 @@
         <v>175</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -22181,10 +22221,10 @@
         <v>175</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -22194,10 +22234,10 @@
         <v>175</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -22207,97 +22247,97 @@
         <v>175</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>196</v>
+        <v>284</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
     <row r="370" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371" s="21" t="s">
-        <v>686</v>
-      </c>
-      <c r="B371" s="21"/>
-      <c r="C371" s="21"/>
+    <row r="371" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" spans="1:5" ht="32" x14ac:dyDescent="0.3">
-      <c r="A372" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>616</v>
-      </c>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="B372" s="25"/>
+      <c r="C372" s="25"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" spans="1:5" ht="31" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" ht="32" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" ht="31" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>337</v>
+        <v>617</v>
       </c>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -22307,23 +22347,23 @@
         <v>170</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>618</v>
+        <v>337</v>
       </c>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -22333,10 +22373,10 @@
         <v>170</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -22346,23 +22386,23 @@
         <v>170</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -22372,10 +22412,10 @@
         <v>170</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -22385,10 +22425,10 @@
         <v>170</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -22398,10 +22438,10 @@
         <v>170</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>570</v>
+        <v>624</v>
       </c>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -22411,10 +22451,10 @@
         <v>170</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -22424,10 +22464,10 @@
         <v>170</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -22437,10 +22477,10 @@
         <v>170</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -22450,23 +22490,23 @@
         <v>170</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>312</v>
+        <v>245</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -22476,10 +22516,10 @@
         <v>174</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -22489,10 +22529,10 @@
         <v>174</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -22502,10 +22542,10 @@
         <v>174</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -22515,10 +22555,10 @@
         <v>174</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -22528,10 +22568,10 @@
         <v>174</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -22541,10 +22581,10 @@
         <v>174</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -22554,10 +22594,10 @@
         <v>174</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -22567,10 +22607,10 @@
         <v>174</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -22580,10 +22620,10 @@
         <v>174</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -22593,10 +22633,10 @@
         <v>174</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -22606,10 +22646,10 @@
         <v>174</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -22619,10 +22659,10 @@
         <v>174</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -22632,10 +22672,10 @@
         <v>174</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -22645,10 +22685,10 @@
         <v>174</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -22658,10 +22698,10 @@
         <v>174</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -22671,10 +22711,10 @@
         <v>174</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -22684,10 +22724,10 @@
         <v>174</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -22697,10 +22737,10 @@
         <v>174</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -22710,10 +22750,10 @@
         <v>174</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -22723,23 +22763,23 @@
         <v>174</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -22749,10 +22789,10 @@
         <v>175</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -22762,72 +22802,72 @@
         <v>175</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" ht="16" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="16" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B414" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="C414" s="2" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="22" t="s">
+    <row r="415" spans="1:5" ht="23" x14ac:dyDescent="0.3">
+      <c r="A415" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="B414" s="22"/>
-      <c r="C414" s="22"/>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A415" s="15" t="s">
+      <c r="B415" s="22"/>
+      <c r="C415" s="22"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B415" s="16" t="s">
+      <c r="B416" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C415" s="17" t="s">
+      <c r="C416" s="17" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" ht="16" x14ac:dyDescent="0.3">
-      <c r="A416" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="16" x14ac:dyDescent="0.3">
@@ -22835,21 +22875,21 @@
         <v>25</v>
       </c>
       <c r="B417" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="16" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="C417" s="19" t="s">
+      <c r="C418" s="19" t="s">
         <v>753</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A418" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C418" s="18" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -22857,38 +22897,56 @@
         <v>29</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="C419" s="14" t="s">
-        <v>755</v>
+        <v>748</v>
+      </c>
+      <c r="C419" s="18" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>756</v>
+        <v>29</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C421" s="14" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B422" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="C421" s="18" t="s">
+      <c r="C422" s="18" t="s">
         <v>759</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="A372:C372"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A315:C315"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="A415:C415"/>
     <mergeCell ref="A121:C121"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A39:C39"/>
@@ -22902,14 +22960,7 @@
     <mergeCell ref="A175:C175"/>
     <mergeCell ref="A207:C207"/>
     <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="A371:C371"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="A343:C343"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
